--- a/files/static/excel/Scheduling Format.xlsx
+++ b/files/static/excel/Scheduling Format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashandeep.singh.CBB\Desktop\liveVersion4\files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashandeep.singh.CBB\Desktop\liveVersion4\files\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE99429-01C4-4D5B-954E-F1892E43C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483967C0-99E8-4D3F-A430-213CCA159445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,28 +627,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{5793439B-D406-44E4-8055-EE1D27BAA8AE}">
-            <xm:f>NOT(ISERROR(SEARCH(#REF!,B1)))</xm:f>
-            <xm:f>#REF!</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B1:Z1</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>